--- a/Plantilla VIsitas Vacia.xlsx
+++ b/Plantilla VIsitas Vacia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523279D6-E763-492D-A2E0-AD7B16BC5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A1C671-8A43-44AA-BFCA-3B03A108B9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -365,15 +365,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,6 +386,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +732,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B5" sqref="B4:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,85 +748,85 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
@@ -836,7 +836,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
@@ -846,7 +846,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -857,7 +857,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -867,7 +867,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
@@ -877,7 +877,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>

--- a/Plantilla VIsitas Vacia.xlsx
+++ b/Plantilla VIsitas Vacia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za51560\Documents\Programacion\Acceso Diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A1C671-8A43-44AA-BFCA-3B03A108B9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EE1BE-BE07-4FDA-BA09-7C109976B6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
+    <workbookView xWindow="-13695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{019328E3-E67A-48E0-8BD1-339FFC7A2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,18 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
@@ -354,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,11 +380,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,10 +389,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,7 +745,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:I13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,19 +761,19 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -781,34 +794,34 @@
       <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="19"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="11"/>
@@ -817,16 +830,16 @@
     </row>
     <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
@@ -836,7 +849,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
@@ -846,7 +859,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -857,7 +870,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -867,7 +880,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
@@ -877,7 +890,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -899,5 +912,6 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>